--- a/问题记录/《项目问题记录表》-方兆强.xlsx
+++ b/问题记录/《项目问题记录表》-方兆强.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>日期</t>
   </si>
@@ -114,7 +114,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>正在跟进中…</t>
+    <t>系统单笔结算金额最大为10万 总部已经在修改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>又卷烧饼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>匠边鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百鹅汇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐州丰县全羊馆</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -531,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -569,7 +585,9 @@
       <c r="A2" s="6">
         <v>43091</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="7">
+        <v>51</v>
+      </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
@@ -587,7 +605,9 @@
       <c r="A3" s="6">
         <v>43091</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="7">
+        <v>51</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
@@ -602,8 +622,15 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="6">
+        <v>43108</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
@@ -615,9 +642,15 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="6">
+        <v>43108</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
@@ -629,9 +662,15 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="6">
+        <v>43108</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
@@ -643,7 +682,15 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="7"/>
+      <c r="A7" s="6">
+        <v>43108</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
@@ -655,7 +702,15 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="7"/>
+      <c r="A8" s="6">
+        <v>43115</v>
+      </c>
+      <c r="B8" s="7">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
@@ -667,7 +722,15 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="7"/>
+      <c r="A9" s="6">
+        <v>43115</v>
+      </c>
+      <c r="B9" s="7">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
